--- a/data/pca/factorExposure/factorExposure_2009-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01646152885816518</v>
+        <v>0.01520608311813152</v>
       </c>
       <c r="C2">
-        <v>-0.009593386992751486</v>
+        <v>0.01088749891278475</v>
       </c>
       <c r="D2">
-        <v>0.01644743661037161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01596419169374652</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001313749256285816</v>
+      </c>
+      <c r="F2">
+        <v>-0.006771034438784185</v>
+      </c>
+      <c r="G2">
+        <v>0.01834186951104923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08160333607741133</v>
+        <v>0.0837982341288462</v>
       </c>
       <c r="C4">
-        <v>-0.08039498990445061</v>
+        <v>0.0860873236559606</v>
       </c>
       <c r="D4">
-        <v>-0.06601937546198129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06585520278002514</v>
+      </c>
+      <c r="E4">
+        <v>0.005790355527562789</v>
+      </c>
+      <c r="F4">
+        <v>-0.04018013372828722</v>
+      </c>
+      <c r="G4">
+        <v>0.03074917544068462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002763350929828492</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001784073185948977</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.309446049113422e-05</v>
+      </c>
+      <c r="E5">
+        <v>-0.003140725554069558</v>
+      </c>
+      <c r="F5">
+        <v>0.002035056765313467</v>
+      </c>
+      <c r="G5">
+        <v>-0.003409921728578831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1680606992613094</v>
+        <v>0.1704783437351892</v>
       </c>
       <c r="C6">
-        <v>0.01854908009173611</v>
+        <v>-0.01029736868946982</v>
       </c>
       <c r="D6">
-        <v>-0.05686067100577271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05882586553555367</v>
+      </c>
+      <c r="E6">
+        <v>0.0164006329180117</v>
+      </c>
+      <c r="F6">
+        <v>0.05791869721521572</v>
+      </c>
+      <c r="G6">
+        <v>-0.0108972119896934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05429730273784843</v>
+        <v>0.05886135397291165</v>
       </c>
       <c r="C7">
-        <v>-0.05691614553371147</v>
+        <v>0.06279390157610808</v>
       </c>
       <c r="D7">
-        <v>-0.04881058884108172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05663397451882704</v>
+      </c>
+      <c r="E7">
+        <v>0.04447574602949482</v>
+      </c>
+      <c r="F7">
+        <v>-0.06812355631081701</v>
+      </c>
+      <c r="G7">
+        <v>0.043442359580077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05745433492362635</v>
+        <v>0.05376698407383182</v>
       </c>
       <c r="C8">
-        <v>-0.0467336068976839</v>
+        <v>0.04763353595174705</v>
       </c>
       <c r="D8">
-        <v>0.02335766371338225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02298591883978118</v>
+      </c>
+      <c r="E8">
+        <v>-0.03088808481404371</v>
+      </c>
+      <c r="F8">
+        <v>-0.03692773932746928</v>
+      </c>
+      <c r="G8">
+        <v>-0.004682414102366994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06129360814986801</v>
+        <v>0.0647712596510587</v>
       </c>
       <c r="C9">
-        <v>-0.08705863309516182</v>
+        <v>0.09071927819865623</v>
       </c>
       <c r="D9">
-        <v>-0.08991870962371432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08698400331709949</v>
+      </c>
+      <c r="E9">
+        <v>0.009305055867422782</v>
+      </c>
+      <c r="F9">
+        <v>-0.062751926198841</v>
+      </c>
+      <c r="G9">
+        <v>0.004638801901443366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1077366404834718</v>
+        <v>0.0997075301117477</v>
       </c>
       <c r="C10">
-        <v>0.1497404407162387</v>
+        <v>-0.1421569843972512</v>
       </c>
       <c r="D10">
-        <v>0.1038941400887735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09432798727154268</v>
+      </c>
+      <c r="E10">
+        <v>0.007378031641166525</v>
+      </c>
+      <c r="F10">
+        <v>-0.04560394367380256</v>
+      </c>
+      <c r="G10">
+        <v>-0.005304609831556104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0789757706439513</v>
+        <v>0.07688939659454533</v>
       </c>
       <c r="C11">
-        <v>-0.1290630532239153</v>
+        <v>0.1284569029443844</v>
       </c>
       <c r="D11">
-        <v>-0.05682390877355187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04898715214617839</v>
+      </c>
+      <c r="E11">
+        <v>-0.01458210524030483</v>
+      </c>
+      <c r="F11">
+        <v>-0.0804495617641787</v>
+      </c>
+      <c r="G11">
+        <v>0.008633020664805639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0829304949332539</v>
+        <v>0.07896831648533661</v>
       </c>
       <c r="C12">
-        <v>-0.1478549903627535</v>
+        <v>0.1491045889146365</v>
       </c>
       <c r="D12">
-        <v>-0.06207526834808302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05802905276148421</v>
+      </c>
+      <c r="E12">
+        <v>-0.005564230343111974</v>
+      </c>
+      <c r="F12">
+        <v>-0.08712280839715676</v>
+      </c>
+      <c r="G12">
+        <v>0.01143570471775946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04206262422642598</v>
+        <v>0.04259843484250254</v>
       </c>
       <c r="C13">
-        <v>-0.06258602656897551</v>
+        <v>0.07061024744162711</v>
       </c>
       <c r="D13">
-        <v>-0.03110930562450386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03084234500475711</v>
+      </c>
+      <c r="E13">
+        <v>0.00752901850477011</v>
+      </c>
+      <c r="F13">
+        <v>-0.07888157073699564</v>
+      </c>
+      <c r="G13">
+        <v>0.01153658554417138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0192167448536709</v>
+        <v>0.02270233659880651</v>
       </c>
       <c r="C14">
-        <v>-0.0424722008628646</v>
+        <v>0.04288995470653671</v>
       </c>
       <c r="D14">
-        <v>-0.05148090667826171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04622338866359046</v>
+      </c>
+      <c r="E14">
+        <v>-0.009354441499379687</v>
+      </c>
+      <c r="F14">
+        <v>-0.08699398154357686</v>
+      </c>
+      <c r="G14">
+        <v>-0.002536645646269584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03102998800973458</v>
+        <v>0.03342812157522763</v>
       </c>
       <c r="C15">
-        <v>-0.05607188187647806</v>
+        <v>0.05568169684561138</v>
       </c>
       <c r="D15">
-        <v>-0.04582924613147078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0415387398408882</v>
+      </c>
+      <c r="E15">
+        <v>0.01060334283780761</v>
+      </c>
+      <c r="F15">
+        <v>-0.03346621784353108</v>
+      </c>
+      <c r="G15">
+        <v>-0.009214838078476012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05724719662003584</v>
+        <v>0.05749850241247645</v>
       </c>
       <c r="C16">
-        <v>-0.1436272935476506</v>
+        <v>0.1430801600255943</v>
       </c>
       <c r="D16">
-        <v>-0.06900265073331026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06053375243601106</v>
+      </c>
+      <c r="E16">
+        <v>-0.02885511471544842</v>
+      </c>
+      <c r="F16">
+        <v>-0.08351128746122921</v>
+      </c>
+      <c r="G16">
+        <v>0.01304333342015603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00495388061115343</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004410775358402675</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001637989481822343</v>
+      </c>
+      <c r="E17">
+        <v>-0.0104678415259432</v>
+      </c>
+      <c r="F17">
+        <v>0.00512367561964376</v>
+      </c>
+      <c r="G17">
+        <v>-0.01711719780342977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03511079161410303</v>
+        <v>0.05140263226740695</v>
       </c>
       <c r="C18">
-        <v>-0.04459729736828687</v>
+        <v>0.03980333174688189</v>
       </c>
       <c r="D18">
-        <v>0.004258798573190148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01004011833283211</v>
+      </c>
+      <c r="E18">
+        <v>-0.003064143867795186</v>
+      </c>
+      <c r="F18">
+        <v>0.04577545265236831</v>
+      </c>
+      <c r="G18">
+        <v>-0.008603827447510691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05656243917668755</v>
+        <v>0.0570086052560734</v>
       </c>
       <c r="C20">
-        <v>-0.0935872500251972</v>
+        <v>0.09328003375661628</v>
       </c>
       <c r="D20">
-        <v>-0.07579851161994834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07360767688033638</v>
+      </c>
+      <c r="E20">
+        <v>-0.01862679512031921</v>
+      </c>
+      <c r="F20">
+        <v>-0.07192588866146213</v>
+      </c>
+      <c r="G20">
+        <v>-0.003732463747821544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04146973554154035</v>
+        <v>0.04381766830646811</v>
       </c>
       <c r="C21">
-        <v>-0.05529412957804543</v>
+        <v>0.05362845544882981</v>
       </c>
       <c r="D21">
-        <v>-0.002922494478455956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.00055245193751369</v>
+      </c>
+      <c r="E21">
+        <v>0.00913491101766669</v>
+      </c>
+      <c r="F21">
+        <v>-0.07901225712764456</v>
+      </c>
+      <c r="G21">
+        <v>0.02716036994849062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04492882590378802</v>
+        <v>0.04355482385821462</v>
       </c>
       <c r="C22">
-        <v>-0.01976806558471487</v>
+        <v>0.02164117416466932</v>
       </c>
       <c r="D22">
-        <v>0.01621425573638162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03868459181919508</v>
+      </c>
+      <c r="E22">
+        <v>-0.1275254218051952</v>
+      </c>
+      <c r="F22">
+        <v>0.01892241154786935</v>
+      </c>
+      <c r="G22">
+        <v>0.01008568646861955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04493822681738384</v>
+        <v>0.04356280758885975</v>
       </c>
       <c r="C23">
-        <v>-0.01976040623951185</v>
+        <v>0.02163455819176998</v>
       </c>
       <c r="D23">
-        <v>0.01624046062897845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03871309987152482</v>
+      </c>
+      <c r="E23">
+        <v>-0.1275601495230487</v>
+      </c>
+      <c r="F23">
+        <v>0.01891440606189419</v>
+      </c>
+      <c r="G23">
+        <v>0.01004964553968336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0669144190149614</v>
+        <v>0.06639409347416583</v>
       </c>
       <c r="C24">
-        <v>-0.1379097211015606</v>
+        <v>0.1359369154137431</v>
       </c>
       <c r="D24">
-        <v>-0.06260777614779565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05666228422730284</v>
+      </c>
+      <c r="E24">
+        <v>-0.009842649247327024</v>
+      </c>
+      <c r="F24">
+        <v>-0.07653279472069398</v>
+      </c>
+      <c r="G24">
+        <v>0.01324058193937881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07235415559857773</v>
+        <v>0.07072592880144377</v>
       </c>
       <c r="C25">
-        <v>-0.1214128256148361</v>
+        <v>0.1195253383347552</v>
       </c>
       <c r="D25">
-        <v>-0.04760465604041342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03921272150348955</v>
+      </c>
+      <c r="E25">
+        <v>0.01875655575024539</v>
+      </c>
+      <c r="F25">
+        <v>-0.09120501514003648</v>
+      </c>
+      <c r="G25">
+        <v>0.0167887111425892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05521292988027987</v>
+        <v>0.05995587849708418</v>
       </c>
       <c r="C26">
-        <v>-0.0651973559995543</v>
+        <v>0.06651779917754885</v>
       </c>
       <c r="D26">
-        <v>-0.02396502380995687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02049046322593288</v>
+      </c>
+      <c r="E26">
+        <v>-0.01013862931695514</v>
+      </c>
+      <c r="F26">
+        <v>-0.08255092549279806</v>
+      </c>
+      <c r="G26">
+        <v>-0.0002610943786321814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.170414537519619</v>
+        <v>0.1725894073039406</v>
       </c>
       <c r="C28">
-        <v>0.2288512932654903</v>
+        <v>-0.2300929422871089</v>
       </c>
       <c r="D28">
-        <v>0.02007301266368014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02695057161571728</v>
+      </c>
+      <c r="E28">
+        <v>0.06280092697683143</v>
+      </c>
+      <c r="F28">
+        <v>-0.1303485702582952</v>
+      </c>
+      <c r="G28">
+        <v>-0.007389220363705468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02368158386774193</v>
+        <v>0.02674865658986597</v>
       </c>
       <c r="C29">
-        <v>-0.04713670794189056</v>
+        <v>0.04475071380500761</v>
       </c>
       <c r="D29">
-        <v>-0.01107766540881976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.007016480836169028</v>
+      </c>
+      <c r="E29">
+        <v>-0.02651826763588137</v>
+      </c>
+      <c r="F29">
+        <v>-0.07837278470659659</v>
+      </c>
+      <c r="G29">
+        <v>0.000109899693285543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03999991365458114</v>
+        <v>0.04247765979356335</v>
       </c>
       <c r="C30">
-        <v>-0.0691836108682965</v>
+        <v>0.07686767440102923</v>
       </c>
       <c r="D30">
-        <v>-0.1225540440301579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1090442210500562</v>
+      </c>
+      <c r="E30">
+        <v>0.06040891016681827</v>
+      </c>
+      <c r="F30">
+        <v>-0.07568083579837792</v>
+      </c>
+      <c r="G30">
+        <v>-0.02309088897883116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05222646780424126</v>
+        <v>0.0516037235925608</v>
       </c>
       <c r="C31">
-        <v>-0.03162403036861699</v>
+        <v>0.03475933480149079</v>
       </c>
       <c r="D31">
-        <v>-0.01116317088352919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01433377893849007</v>
+      </c>
+      <c r="E31">
+        <v>-0.03528891765088476</v>
+      </c>
+      <c r="F31">
+        <v>-0.01594472991114926</v>
+      </c>
+      <c r="G31">
+        <v>0.02639615001195384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04333610132970506</v>
+        <v>0.04796502284264968</v>
       </c>
       <c r="C32">
-        <v>-0.04820743916781145</v>
+        <v>0.04523830220266113</v>
       </c>
       <c r="D32">
-        <v>-0.02079505646443544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02191621787514652</v>
+      </c>
+      <c r="E32">
+        <v>-0.03317720264118061</v>
+      </c>
+      <c r="F32">
+        <v>-0.007200089431126971</v>
+      </c>
+      <c r="G32">
+        <v>-0.01093739682897762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0784324269292391</v>
+        <v>0.08208679575767117</v>
       </c>
       <c r="C33">
-        <v>-0.1079783189562509</v>
+        <v>0.1167767190326454</v>
       </c>
       <c r="D33">
-        <v>-0.06723725605391098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0681670412179206</v>
+      </c>
+      <c r="E33">
+        <v>-0.01810090812609752</v>
+      </c>
+      <c r="F33">
+        <v>-0.07743054848887133</v>
+      </c>
+      <c r="G33">
+        <v>0.006823714635721639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05578161405931938</v>
+        <v>0.05558636344636827</v>
       </c>
       <c r="C34">
-        <v>-0.1220762558305745</v>
+        <v>0.1235709831118324</v>
       </c>
       <c r="D34">
-        <v>-0.08009486988527585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06634690280555848</v>
+      </c>
+      <c r="E34">
+        <v>0.01992281523155769</v>
+      </c>
+      <c r="F34">
+        <v>-0.08605561054189148</v>
+      </c>
+      <c r="G34">
+        <v>-0.01697354241800689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02685834605475794</v>
+        <v>0.02874943090041369</v>
       </c>
       <c r="C35">
-        <v>-0.01502019977043957</v>
+        <v>0.01644420087755341</v>
       </c>
       <c r="D35">
-        <v>-0.02509601080874699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02069140973483918</v>
+      </c>
+      <c r="E35">
+        <v>-0.02165373961532509</v>
+      </c>
+      <c r="F35">
+        <v>-0.03892726474611264</v>
+      </c>
+      <c r="G35">
+        <v>-0.02558949558708388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02237726712400205</v>
+        <v>0.02712198190864627</v>
       </c>
       <c r="C36">
-        <v>-0.04682402796196421</v>
+        <v>0.04767696555169236</v>
       </c>
       <c r="D36">
-        <v>-0.0638518226544306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05444049205163404</v>
+      </c>
+      <c r="E36">
+        <v>-0.01579237714949745</v>
+      </c>
+      <c r="F36">
+        <v>-0.03936641634077216</v>
+      </c>
+      <c r="G36">
+        <v>-0.07824410725426083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003642726718230577</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006592696388575629</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-2.2266779399662e-05</v>
+      </c>
+      <c r="E37">
+        <v>-0.001844806411904865</v>
+      </c>
+      <c r="F37">
+        <v>-0.009537730129907227</v>
+      </c>
+      <c r="G37">
+        <v>0.005883438727793236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08416471033654216</v>
+        <v>0.07852344217903877</v>
       </c>
       <c r="C39">
-        <v>-0.1518699090981044</v>
+        <v>0.1469424893423509</v>
       </c>
       <c r="D39">
-        <v>-0.04483213702811608</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03805418180259335</v>
+      </c>
+      <c r="E39">
+        <v>-0.01372865385276217</v>
+      </c>
+      <c r="F39">
+        <v>-0.1256758775692199</v>
+      </c>
+      <c r="G39">
+        <v>0.05082056217749058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04514524623543723</v>
+        <v>0.05113797706328768</v>
       </c>
       <c r="C40">
-        <v>-0.05997474825992407</v>
+        <v>0.06481993672514627</v>
       </c>
       <c r="D40">
-        <v>-0.01385927473904347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.007596082345973147</v>
+      </c>
+      <c r="E40">
+        <v>-0.006755811214522036</v>
+      </c>
+      <c r="F40">
+        <v>-0.05975838460493323</v>
+      </c>
+      <c r="G40">
+        <v>-0.03526092077489158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02657346941363381</v>
+        <v>0.02871917532391585</v>
       </c>
       <c r="C41">
-        <v>-0.02142484268527226</v>
+        <v>0.02218232651517429</v>
       </c>
       <c r="D41">
-        <v>0.008120066586395452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006789698726720428</v>
+      </c>
+      <c r="E41">
+        <v>-0.009057075396072447</v>
+      </c>
+      <c r="F41">
+        <v>0.01241042265952923</v>
+      </c>
+      <c r="G41">
+        <v>-0.01253293418620861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04247981307786996</v>
+        <v>0.04189785874425656</v>
       </c>
       <c r="C43">
-        <v>-0.03900171721915364</v>
+        <v>0.03621216730240377</v>
       </c>
       <c r="D43">
-        <v>-0.001762487421212431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0007192362790435596</v>
+      </c>
+      <c r="E43">
+        <v>-0.02819346386328017</v>
+      </c>
+      <c r="F43">
+        <v>-0.02560176704382331</v>
+      </c>
+      <c r="G43">
+        <v>0.004541303105444264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05582030545735023</v>
+        <v>0.06416502545048562</v>
       </c>
       <c r="C44">
-        <v>-0.07903861831354782</v>
+        <v>0.08642727300125458</v>
       </c>
       <c r="D44">
-        <v>-0.281565748340752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2588791104798069</v>
+      </c>
+      <c r="E44">
+        <v>0.0375418445311039</v>
+      </c>
+      <c r="F44">
+        <v>-0.1742783247942016</v>
+      </c>
+      <c r="G44">
+        <v>-0.1683452154475629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-3.009661405184551e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.000407655087186095</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>6.959942261565182e-05</v>
+      </c>
+      <c r="E45">
+        <v>-7.024071561188709e-05</v>
+      </c>
+      <c r="F45">
+        <v>-8.44383120847459e-05</v>
+      </c>
+      <c r="G45">
+        <v>0.0004300763562123393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02662934336409123</v>
+        <v>0.02711709527739536</v>
       </c>
       <c r="C46">
-        <v>-0.03151848858607503</v>
+        <v>0.03101657333872275</v>
       </c>
       <c r="D46">
-        <v>-0.01209898696659716</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01030055856873099</v>
+      </c>
+      <c r="E46">
+        <v>-0.03876420459360857</v>
+      </c>
+      <c r="F46">
+        <v>-0.07041921439007783</v>
+      </c>
+      <c r="G46">
+        <v>0.03321036072545008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05167091091357847</v>
+        <v>0.05094953370003811</v>
       </c>
       <c r="C47">
-        <v>-0.02341662234059071</v>
+        <v>0.0258609645491753</v>
       </c>
       <c r="D47">
-        <v>0.02404617539493936</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01581110128665421</v>
+      </c>
+      <c r="E47">
+        <v>-0.05791732049188573</v>
+      </c>
+      <c r="F47">
+        <v>0.0133083674616264</v>
+      </c>
+      <c r="G47">
+        <v>0.03387740254137344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04670482655080088</v>
+        <v>0.05017883379958846</v>
       </c>
       <c r="C48">
-        <v>-0.06716696437744286</v>
+        <v>0.06624338544135124</v>
       </c>
       <c r="D48">
-        <v>-0.02324694994376084</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02041410903513051</v>
+      </c>
+      <c r="E48">
+        <v>0.01531612917750537</v>
+      </c>
+      <c r="F48">
+        <v>-0.0548528240708796</v>
+      </c>
+      <c r="G48">
+        <v>0.02351284246775484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1956467507941398</v>
+        <v>0.1981030300288107</v>
       </c>
       <c r="C49">
-        <v>0.009932430037863716</v>
+        <v>-0.002525118057999212</v>
       </c>
       <c r="D49">
-        <v>-0.03375359380842622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04316589502093725</v>
+      </c>
+      <c r="E49">
+        <v>0.02717424517055966</v>
+      </c>
+      <c r="F49">
+        <v>0.06355405192964356</v>
+      </c>
+      <c r="G49">
+        <v>-0.005029292206834415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05040065887732258</v>
+        <v>0.051926992102418</v>
       </c>
       <c r="C50">
-        <v>-0.02941692097752776</v>
+        <v>0.03227674881970597</v>
       </c>
       <c r="D50">
-        <v>-0.01984202662592718</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02511637652007525</v>
+      </c>
+      <c r="E50">
+        <v>-0.02548343647495593</v>
+      </c>
+      <c r="F50">
+        <v>-0.008923624116431529</v>
+      </c>
+      <c r="G50">
+        <v>0.02551718248433785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1442850255347848</v>
+        <v>0.1378523829805219</v>
       </c>
       <c r="C52">
-        <v>-0.03486081054488494</v>
+        <v>0.03523291192252363</v>
       </c>
       <c r="D52">
-        <v>-0.05830392380248081</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05794496290337401</v>
+      </c>
+      <c r="E52">
+        <v>-0.02372297336999474</v>
+      </c>
+      <c r="F52">
+        <v>0.06383547266460125</v>
+      </c>
+      <c r="G52">
+        <v>0.03362533074827474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1745939100747262</v>
+        <v>0.1656015913020229</v>
       </c>
       <c r="C53">
-        <v>-0.002214893913196062</v>
+        <v>0.004921883371542495</v>
       </c>
       <c r="D53">
-        <v>-0.09832074904589057</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1055679215875337</v>
+      </c>
+      <c r="E53">
+        <v>-0.01563111890773979</v>
+      </c>
+      <c r="F53">
+        <v>0.1094898415654854</v>
+      </c>
+      <c r="G53">
+        <v>0.06757553227925751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01115592447466576</v>
+        <v>0.01465055106357598</v>
       </c>
       <c r="C54">
-        <v>-0.03173607691575612</v>
+        <v>0.03144670496756967</v>
       </c>
       <c r="D54">
-        <v>-0.01803231484173218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0173218836323928</v>
+      </c>
+      <c r="E54">
+        <v>-0.01852745494853232</v>
+      </c>
+      <c r="F54">
+        <v>-0.05865694747088406</v>
+      </c>
+      <c r="G54">
+        <v>-0.0007696708987848126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1201923197012337</v>
+        <v>0.1166508969794422</v>
       </c>
       <c r="C55">
-        <v>-0.005477616143692412</v>
+        <v>0.01129337370150416</v>
       </c>
       <c r="D55">
-        <v>-0.06409732034839402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06761416629880469</v>
+      </c>
+      <c r="E55">
+        <v>-0.04629131865419112</v>
+      </c>
+      <c r="F55">
+        <v>0.03076725191980432</v>
+      </c>
+      <c r="G55">
+        <v>0.07312085939686164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1811982805218954</v>
+        <v>0.1733819497064354</v>
       </c>
       <c r="C56">
-        <v>0.00565786409060385</v>
+        <v>-0.004513795539913511</v>
       </c>
       <c r="D56">
-        <v>-0.04536295898477669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0561416557246767</v>
+      </c>
+      <c r="E56">
+        <v>-0.03887394878702508</v>
+      </c>
+      <c r="F56">
+        <v>0.1433715232897159</v>
+      </c>
+      <c r="G56">
+        <v>0.06934878631689251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0448549165423615</v>
+        <v>0.04494577637693144</v>
       </c>
       <c r="C58">
-        <v>-0.09435338065998287</v>
+        <v>0.1012728850573288</v>
       </c>
       <c r="D58">
-        <v>0.005662766790333433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.000763043424946472</v>
+      </c>
+      <c r="E58">
+        <v>-0.04801591029334017</v>
+      </c>
+      <c r="F58">
+        <v>-0.04348288695778988</v>
+      </c>
+      <c r="G58">
+        <v>0.02216921499150398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.186333921851545</v>
+        <v>0.1889782741149743</v>
       </c>
       <c r="C59">
-        <v>0.1788292508977033</v>
+        <v>-0.1837691371575113</v>
       </c>
       <c r="D59">
-        <v>0.07947676865801238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08046387969390584</v>
+      </c>
+      <c r="E59">
+        <v>-0.003633193611991129</v>
+      </c>
+      <c r="F59">
+        <v>-0.05731756394334962</v>
+      </c>
+      <c r="G59">
+        <v>0.03986049221523674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2164276000561324</v>
+        <v>0.2110195474764008</v>
       </c>
       <c r="C60">
-        <v>-0.0137570729368081</v>
+        <v>0.01977964590450778</v>
       </c>
       <c r="D60">
-        <v>0.06209798234786093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0422285041971039</v>
+      </c>
+      <c r="E60">
+        <v>-0.01392001690200374</v>
+      </c>
+      <c r="F60">
+        <v>0.2099048281839789</v>
+      </c>
+      <c r="G60">
+        <v>0.07722444637753373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06532465924112858</v>
+        <v>0.0624678089795358</v>
       </c>
       <c r="C61">
-        <v>-0.1231845147660112</v>
+        <v>0.1205831212482193</v>
       </c>
       <c r="D61">
-        <v>-0.03631189732956977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02953221141815577</v>
+      </c>
+      <c r="E61">
+        <v>-0.02539441650353865</v>
+      </c>
+      <c r="F61">
+        <v>-0.08433390400471591</v>
+      </c>
+      <c r="G61">
+        <v>0.02465568130285017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1680044406183351</v>
+        <v>0.164195454992033</v>
       </c>
       <c r="C62">
-        <v>0.009954381259539449</v>
+        <v>-0.007478065055174629</v>
       </c>
       <c r="D62">
-        <v>-0.03695179476730344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04929185447597595</v>
+      </c>
+      <c r="E62">
+        <v>-0.03771616789899088</v>
+      </c>
+      <c r="F62">
+        <v>0.1144877589865241</v>
+      </c>
+      <c r="G62">
+        <v>0.06474112833807388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03728780633971548</v>
+        <v>0.0430492082001409</v>
       </c>
       <c r="C63">
-        <v>-0.06761312026437113</v>
+        <v>0.07170529452641941</v>
       </c>
       <c r="D63">
-        <v>-0.02820157304601736</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02227044616602005</v>
+      </c>
+      <c r="E63">
+        <v>-0.0299304049406648</v>
+      </c>
+      <c r="F63">
+        <v>-0.0525090898279119</v>
+      </c>
+      <c r="G63">
+        <v>-0.02402295817750035</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.111326443671141</v>
+        <v>0.1093869379192552</v>
       </c>
       <c r="C64">
-        <v>-0.04924048320539781</v>
+        <v>0.05286397847235054</v>
       </c>
       <c r="D64">
-        <v>-0.03521127525309498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03937248577439682</v>
+      </c>
+      <c r="E64">
+        <v>-0.01370687914521479</v>
+      </c>
+      <c r="F64">
+        <v>0.03300490985133143</v>
+      </c>
+      <c r="G64">
+        <v>0.0049286879864612</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1577376289500098</v>
+        <v>0.1606584778130498</v>
       </c>
       <c r="C65">
-        <v>0.05996836602337186</v>
+        <v>-0.04997673639490215</v>
       </c>
       <c r="D65">
-        <v>-0.04717867671155256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05452246471838466</v>
+      </c>
+      <c r="E65">
+        <v>0.005790192934162135</v>
+      </c>
+      <c r="F65">
+        <v>0.01431586808247689</v>
+      </c>
+      <c r="G65">
+        <v>0.01640598197523732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1024984611870461</v>
+        <v>0.09564413853302353</v>
       </c>
       <c r="C66">
-        <v>-0.1296682806135853</v>
+        <v>0.1295271595137663</v>
       </c>
       <c r="D66">
-        <v>-0.04614744591475486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03638091774961581</v>
+      </c>
+      <c r="E66">
+        <v>-0.007313896900545683</v>
+      </c>
+      <c r="F66">
+        <v>-0.1028682373629227</v>
+      </c>
+      <c r="G66">
+        <v>0.005484966701862958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05769408856951165</v>
+        <v>0.04858147386400564</v>
       </c>
       <c r="C67">
-        <v>-0.08049660183699567</v>
+        <v>0.07320353394805224</v>
       </c>
       <c r="D67">
-        <v>0.0504902925166338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05165132482449781</v>
+      </c>
+      <c r="E67">
+        <v>-0.0792067350656469</v>
+      </c>
+      <c r="F67">
+        <v>0.03206491096472058</v>
+      </c>
+      <c r="G67">
+        <v>0.002586788307006288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1388657708130369</v>
+        <v>0.1414413648780351</v>
       </c>
       <c r="C68">
-        <v>0.2477671249666852</v>
+        <v>-0.2506412596431157</v>
       </c>
       <c r="D68">
-        <v>0.0401707012692001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.042210857392648</v>
+      </c>
+      <c r="E68">
+        <v>0.1043452039317572</v>
+      </c>
+      <c r="F68">
+        <v>-0.1142075643490553</v>
+      </c>
+      <c r="G68">
+        <v>0.02368475920645455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03916409522297949</v>
+        <v>0.03868265383814246</v>
       </c>
       <c r="C69">
-        <v>-0.01333919893631087</v>
+        <v>0.01519909738760758</v>
       </c>
       <c r="D69">
-        <v>-0.005462362147442302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009395242565675662</v>
+      </c>
+      <c r="E69">
+        <v>-0.06352337407808692</v>
+      </c>
+      <c r="F69">
+        <v>0.04317164491409848</v>
+      </c>
+      <c r="G69">
+        <v>-0.02151633189003852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07004473217731742</v>
+        <v>0.07142823532566012</v>
       </c>
       <c r="C70">
-        <v>-0.07977734422054383</v>
+        <v>0.07324351809076633</v>
       </c>
       <c r="D70">
-        <v>0.526172583812251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4234381160920694</v>
+      </c>
+      <c r="E70">
+        <v>-0.1986424711621691</v>
+      </c>
+      <c r="F70">
+        <v>0.3688122275554226</v>
+      </c>
+      <c r="G70">
+        <v>0.4140073214076818</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1610977837455425</v>
+        <v>0.1650116210954896</v>
       </c>
       <c r="C71">
-        <v>0.2544726440700185</v>
+        <v>-0.2546880936794</v>
       </c>
       <c r="D71">
-        <v>0.04044401776076166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04512507446788426</v>
+      </c>
+      <c r="E71">
+        <v>0.1144309059817323</v>
+      </c>
+      <c r="F71">
+        <v>-0.1151374218180497</v>
+      </c>
+      <c r="G71">
+        <v>0.026150027842498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1432411603587653</v>
+        <v>0.1482936438052685</v>
       </c>
       <c r="C72">
-        <v>-0.01168303094488671</v>
+        <v>0.009693437904009108</v>
       </c>
       <c r="D72">
-        <v>-0.07425167549053241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06676612827466556</v>
+      </c>
+      <c r="E72">
+        <v>-0.04085595840015072</v>
+      </c>
+      <c r="F72">
+        <v>0.01904528389574204</v>
+      </c>
+      <c r="G72">
+        <v>-0.006925762470106526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1926713925118174</v>
+        <v>0.2000605888777042</v>
       </c>
       <c r="C73">
-        <v>-0.02019464719265356</v>
+        <v>0.02866540244526387</v>
       </c>
       <c r="D73">
-        <v>-0.05795953815186065</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0662340272927559</v>
+      </c>
+      <c r="E73">
+        <v>-0.06992609602065541</v>
+      </c>
+      <c r="F73">
+        <v>0.1068152205563829</v>
+      </c>
+      <c r="G73">
+        <v>-0.02374550498999301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08661966201279782</v>
+        <v>0.0856715294341331</v>
       </c>
       <c r="C74">
-        <v>-0.004775475744790808</v>
+        <v>0.01127284371611649</v>
       </c>
       <c r="D74">
-        <v>-0.07343980456921834</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07949321475430368</v>
+      </c>
+      <c r="E74">
+        <v>-0.02518708360536506</v>
+      </c>
+      <c r="F74">
+        <v>0.06508497334869713</v>
+      </c>
+      <c r="G74">
+        <v>-6.264539321483215e-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.124000779163989</v>
+        <v>0.116212757611355</v>
       </c>
       <c r="C75">
-        <v>-0.01801582221827375</v>
+        <v>0.02159742663186666</v>
       </c>
       <c r="D75">
-        <v>-0.05516981182187189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.05688722352181869</v>
+      </c>
+      <c r="E75">
+        <v>-0.05915559464275974</v>
+      </c>
+      <c r="F75">
+        <v>0.05634292437061804</v>
+      </c>
+      <c r="G75">
+        <v>0.04756465200132854</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07143841133481273</v>
+        <v>0.08651045323092274</v>
       </c>
       <c r="C77">
-        <v>-0.1128196935885461</v>
+        <v>0.1118380823407094</v>
       </c>
       <c r="D77">
-        <v>-0.06937314040765892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07315657032677192</v>
+      </c>
+      <c r="E77">
+        <v>0.01249605956162923</v>
+      </c>
+      <c r="F77">
+        <v>-0.08155438840842484</v>
+      </c>
+      <c r="G77">
+        <v>0.1073857109164465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08879883204040628</v>
+        <v>0.09287858849611984</v>
       </c>
       <c r="C78">
-        <v>-0.1355957160083379</v>
+        <v>0.1334324398370898</v>
       </c>
       <c r="D78">
-        <v>-0.0865885211924029</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06724702319754955</v>
+      </c>
+      <c r="E78">
+        <v>0.005435704554284043</v>
+      </c>
+      <c r="F78">
+        <v>-0.1167582687825045</v>
+      </c>
+      <c r="G78">
+        <v>0.09377969995881782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1675397272270597</v>
+        <v>0.1625788365357407</v>
       </c>
       <c r="C79">
-        <v>-0.01786482250787313</v>
+        <v>0.01848106536656455</v>
       </c>
       <c r="D79">
-        <v>-0.03050468503083516</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03379992070166866</v>
+      </c>
+      <c r="E79">
+        <v>-0.03868909553219226</v>
+      </c>
+      <c r="F79">
+        <v>0.04927068438992768</v>
+      </c>
+      <c r="G79">
+        <v>0.04666242969340961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07537297669183404</v>
+        <v>0.07328371331663766</v>
       </c>
       <c r="C80">
-        <v>-0.05718252914617328</v>
+        <v>0.05596878366537538</v>
       </c>
       <c r="D80">
-        <v>-0.01172345464669268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.00317653227804561</v>
+      </c>
+      <c r="E80">
+        <v>-0.05119321532620468</v>
+      </c>
+      <c r="F80">
+        <v>-0.1171161477020266</v>
+      </c>
+      <c r="G80">
+        <v>-0.09596766440254494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1107805612995845</v>
+        <v>0.1046617450063259</v>
       </c>
       <c r="C81">
-        <v>0.01599801437752512</v>
+        <v>-0.01279317809385909</v>
       </c>
       <c r="D81">
-        <v>-0.02649139293522036</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03110241324231155</v>
+      </c>
+      <c r="E81">
+        <v>-0.05988870809603276</v>
+      </c>
+      <c r="F81">
+        <v>0.06175864676558805</v>
+      </c>
+      <c r="G81">
+        <v>0.01667335075051059</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1608925382903434</v>
+        <v>0.157276473221459</v>
       </c>
       <c r="C82">
-        <v>0.02293667913708329</v>
+        <v>-0.01709115867612585</v>
       </c>
       <c r="D82">
-        <v>-0.08959592328614566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.097168914933063</v>
+      </c>
+      <c r="E82">
+        <v>-0.007679225546541144</v>
+      </c>
+      <c r="F82">
+        <v>0.1029372746263434</v>
+      </c>
+      <c r="G82">
+        <v>0.002984127541804102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05287268197231104</v>
+        <v>0.04908199491909422</v>
       </c>
       <c r="C83">
-        <v>-0.06027566947446784</v>
+        <v>0.05633485066975874</v>
       </c>
       <c r="D83">
-        <v>0.009277003267466799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01122534568543426</v>
+      </c>
+      <c r="E83">
+        <v>-0.01147465738721396</v>
+      </c>
+      <c r="F83">
+        <v>-0.007476452214066408</v>
+      </c>
+      <c r="G83">
+        <v>0.01634263242509777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05056254147311248</v>
+        <v>0.04793640653558511</v>
       </c>
       <c r="C84">
-        <v>-0.07242232849553187</v>
+        <v>0.07011662780147492</v>
       </c>
       <c r="D84">
-        <v>-0.001606366813619392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001714737518353602</v>
+      </c>
+      <c r="E84">
+        <v>-0.009585433751251827</v>
+      </c>
+      <c r="F84">
+        <v>0.01204945374440634</v>
+      </c>
+      <c r="G84">
+        <v>0.03142681662113089</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1400891648447169</v>
+        <v>0.1340597255118841</v>
       </c>
       <c r="C85">
-        <v>-0.007905461819949087</v>
+        <v>0.01053368600326958</v>
       </c>
       <c r="D85">
-        <v>-0.09247694386111152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09196067797572144</v>
+      </c>
+      <c r="E85">
+        <v>-0.02032062123599895</v>
+      </c>
+      <c r="F85">
+        <v>0.04036890624074603</v>
+      </c>
+      <c r="G85">
+        <v>0.03318388408781189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08370824776482802</v>
+        <v>0.08179496505009037</v>
       </c>
       <c r="C86">
-        <v>-0.09929967053775871</v>
+        <v>0.1004102275758525</v>
       </c>
       <c r="D86">
-        <v>0.5053274946310119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5716153334249396</v>
+      </c>
+      <c r="E86">
+        <v>-0.4499013559960525</v>
+      </c>
+      <c r="F86">
+        <v>-0.4798921641438208</v>
+      </c>
+      <c r="G86">
+        <v>-0.07763239561013023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0884068803908124</v>
+        <v>0.08748121188816627</v>
       </c>
       <c r="C87">
-        <v>-0.08494698866425036</v>
+        <v>0.0866690802240789</v>
       </c>
       <c r="D87">
-        <v>-0.05377119171241294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.04022391618635673</v>
+      </c>
+      <c r="E87">
+        <v>0.09933450446510408</v>
+      </c>
+      <c r="F87">
+        <v>-0.09230818366959677</v>
+      </c>
+      <c r="G87">
+        <v>-0.06471160237900248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06046311945222852</v>
+        <v>0.060047461364996</v>
       </c>
       <c r="C88">
-        <v>-0.0589495365609498</v>
+        <v>0.05951083524985604</v>
       </c>
       <c r="D88">
-        <v>-0.01392380519865035</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01672064326452493</v>
+      </c>
+      <c r="E88">
+        <v>-0.01446819125918387</v>
+      </c>
+      <c r="F88">
+        <v>0.02546630760766714</v>
+      </c>
+      <c r="G88">
+        <v>0.01502339515367455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1476622855093</v>
+        <v>0.1497890335295816</v>
       </c>
       <c r="C89">
-        <v>0.1958105176199748</v>
+        <v>-0.2074525961316849</v>
       </c>
       <c r="D89">
-        <v>0.01739960834834267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02794565735394751</v>
+      </c>
+      <c r="E89">
+        <v>0.09259980863793839</v>
+      </c>
+      <c r="F89">
+        <v>-0.08787880045141487</v>
+      </c>
+      <c r="G89">
+        <v>-0.002518951323121348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1752815229417679</v>
+        <v>0.1822501425802675</v>
       </c>
       <c r="C90">
-        <v>0.2307730422225132</v>
+        <v>-0.2388594339985984</v>
       </c>
       <c r="D90">
-        <v>0.05434231715758039</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.06363194288756452</v>
+      </c>
+      <c r="E90">
+        <v>0.141838757448993</v>
+      </c>
+      <c r="F90">
+        <v>-0.1325963370642647</v>
+      </c>
+      <c r="G90">
+        <v>0.007997269534584477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1262825187384794</v>
+        <v>0.1204476183363631</v>
       </c>
       <c r="C91">
-        <v>0.02187888010746413</v>
+        <v>-0.02007063905378628</v>
       </c>
       <c r="D91">
-        <v>-0.02230500431299743</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02302450665571032</v>
+      </c>
+      <c r="E91">
+        <v>-0.09296242580132959</v>
+      </c>
+      <c r="F91">
+        <v>0.08960416583504169</v>
+      </c>
+      <c r="G91">
+        <v>0.0008470308656789028</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1696055947152404</v>
+        <v>0.1721729880636106</v>
       </c>
       <c r="C92">
-        <v>0.2660651001304064</v>
+        <v>-0.2778260522943187</v>
       </c>
       <c r="D92">
-        <v>0.05483117007696203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05220545201219223</v>
+      </c>
+      <c r="E92">
+        <v>0.09942563012681291</v>
+      </c>
+      <c r="F92">
+        <v>-0.1748014519215209</v>
+      </c>
+      <c r="G92">
+        <v>0.06681062059714857</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1762384519687109</v>
+        <v>0.1835111746509123</v>
       </c>
       <c r="C93">
-        <v>0.2231046384052627</v>
+        <v>-0.230170143129534</v>
       </c>
       <c r="D93">
-        <v>0.0295196333647886</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03025382186306505</v>
+      </c>
+      <c r="E93">
+        <v>0.06849072317732972</v>
+      </c>
+      <c r="F93">
+        <v>-0.08900866136097292</v>
+      </c>
+      <c r="G93">
+        <v>0.06622902014183334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1193631990845765</v>
+        <v>0.1136631675484277</v>
       </c>
       <c r="C94">
-        <v>-0.03176157210189753</v>
+        <v>0.03237495111865093</v>
       </c>
       <c r="D94">
-        <v>-0.04865690686597106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04945314141028104</v>
+      </c>
+      <c r="E94">
+        <v>-0.05966844134786867</v>
+      </c>
+      <c r="F94">
+        <v>0.05505057427134993</v>
+      </c>
+      <c r="G94">
+        <v>0.0418476384506592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1195700215865265</v>
+        <v>0.1225922653209412</v>
       </c>
       <c r="C95">
-        <v>-0.1089836588083829</v>
+        <v>0.1172072435865028</v>
       </c>
       <c r="D95">
-        <v>-0.00228442305089734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.006901555178199298</v>
+      </c>
+      <c r="E95">
+        <v>-0.05164126931658222</v>
+      </c>
+      <c r="F95">
+        <v>-0.04799926764142336</v>
+      </c>
+      <c r="G95">
+        <v>0.005297875874450647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1241919546427147</v>
+        <v>0.1219532860698313</v>
       </c>
       <c r="C96">
-        <v>-0.1229904918389764</v>
+        <v>0.1304130002871202</v>
       </c>
       <c r="D96">
-        <v>0.05813008381627469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.02470508045511887</v>
+      </c>
+      <c r="E96">
+        <v>-0.08339154306035493</v>
+      </c>
+      <c r="F96">
+        <v>0.1594812235754293</v>
+      </c>
+      <c r="G96">
+        <v>0.0504920449206691</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.192710176148772</v>
+        <v>0.1970821878083256</v>
       </c>
       <c r="C97">
-        <v>0.002842340595129276</v>
+        <v>-0.004156441476188009</v>
       </c>
       <c r="D97">
-        <v>0.1280710567177446</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1623675763750008</v>
+      </c>
+      <c r="E97">
+        <v>-0.1043409281652266</v>
+      </c>
+      <c r="F97">
+        <v>0.2838902642964774</v>
+      </c>
+      <c r="G97">
+        <v>-0.8277825343415025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1988948017994167</v>
+        <v>0.2043752387298318</v>
       </c>
       <c r="C98">
-        <v>-0.02427439790311671</v>
+        <v>0.03003462099900564</v>
       </c>
       <c r="D98">
-        <v>0.1136910244321401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1026252226070737</v>
+      </c>
+      <c r="E98">
+        <v>0.03029371591226632</v>
+      </c>
+      <c r="F98">
+        <v>0.09736135698209146</v>
+      </c>
+      <c r="G98">
+        <v>0.009374532458304221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05360145779996977</v>
+        <v>0.05344794297135023</v>
       </c>
       <c r="C99">
-        <v>-0.05290958971823715</v>
+        <v>0.0547539878743905</v>
       </c>
       <c r="D99">
-        <v>-0.01015629291957448</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.009224263029599059</v>
+      </c>
+      <c r="E99">
+        <v>-0.0004464043376260521</v>
+      </c>
+      <c r="F99">
+        <v>-0.03994300471229022</v>
+      </c>
+      <c r="G99">
+        <v>-0.007673989273006933</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1145954751998829</v>
+        <v>0.1082870348776629</v>
       </c>
       <c r="C100">
-        <v>-0.4076349889384057</v>
+        <v>0.3726261981088095</v>
       </c>
       <c r="D100">
-        <v>0.3908109418258999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.4401395347521865</v>
+      </c>
+      <c r="E100">
+        <v>0.7394758361864592</v>
+      </c>
+      <c r="F100">
+        <v>0.04461126882067058</v>
+      </c>
+      <c r="G100">
+        <v>-0.02933179239290075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02361613441035926</v>
+        <v>0.02669174031548715</v>
       </c>
       <c r="C101">
-        <v>-0.04668454034252453</v>
+        <v>0.04426398959439855</v>
       </c>
       <c r="D101">
-        <v>-0.006826684704935251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.003851060328106187</v>
+      </c>
+      <c r="E101">
+        <v>-0.0276503970391614</v>
+      </c>
+      <c r="F101">
+        <v>-0.0732665101770979</v>
+      </c>
+      <c r="G101">
+        <v>0.003265069771863065</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
